--- a/biology/Médecine/Nicolas_Devergie/Nicolas_Devergie.xlsx
+++ b/biology/Médecine/Nicolas_Devergie/Nicolas_Devergie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Nicolas Devergie, dit Devergie aîné, né à Saint-Mandé le 12 août 1784, mort le 14 mars 1842, est un médecin militaire français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Devergie est le frère d'Alphonse Devergie. Il débute jeune de brillantes études de médecine à l'Hôtel-Dieu de Paris, sous Pelletan, Le Preux, Bourdier et Bosquillon. Il devient interne à l'Hôtel-Dieu, puis aux Hôpitaux de Paris en 1802. Il intègre la même année l'École pratique.
 Chirurgien de 3e classe au camp de Saint-Omer en 1803, puis chirurgien aide-major au 9e regiment de cuirassiers en 1805, il devient chirurgien en chef de l'hôpital d'Amersfoort en 1811, chirurgien major au grand parc de l'artillerie de la grande armée, puis au grand quartier général en 1812. Il est détaché auprès du baron Larrey la même année.
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« De l'emploi des bois sudorifiques dans le traitement de la maladie vénérienne... », 1811
 « Clinique de la maladie syphilitique... enrichie d'observations», 1826-1833
@@ -589,7 +605,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Germain Sarrut, « Biographie des hommes du jour », 1837
 Gérard Tille, « Dermatologie des XIX et XXe siècles: Mutations et controverses », 2011</t>
